--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il1f5-Il1rl2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il1f5-Il1rl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Il1f5</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06906766666666665</v>
+        <v>0.07578833333333333</v>
       </c>
       <c r="H2">
-        <v>0.207203</v>
+        <v>0.227365</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01411602276146197</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01411602276146197</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.461252</v>
+        <v>1.224063</v>
       </c>
       <c r="N2">
-        <v>4.922504</v>
+        <v>2.448126</v>
       </c>
       <c r="O2">
-        <v>0.1128897655020608</v>
+        <v>0.05553832087561397</v>
       </c>
       <c r="P2">
-        <v>0.07976410391061088</v>
+        <v>0.03916567331014337</v>
       </c>
       <c r="Q2">
-        <v>0.1699929327186666</v>
+        <v>0.09276969466499999</v>
       </c>
       <c r="R2">
-        <v>1.019957596312</v>
+        <v>0.55661816799</v>
       </c>
       <c r="S2">
-        <v>0.1128897655020608</v>
+        <v>0.0007839802016135452</v>
       </c>
       <c r="T2">
-        <v>0.07976410391061088</v>
+        <v>0.0005528635359139672</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06906766666666665</v>
+        <v>0.07578833333333333</v>
       </c>
       <c r="H3">
-        <v>0.207203</v>
+        <v>0.227365</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01411602276146197</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01411602276146197</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>13.77326033333333</v>
       </c>
       <c r="N3">
-        <v>41.319781</v>
+        <v>41.31978100000001</v>
       </c>
       <c r="O3">
-        <v>0.6317354457117094</v>
+        <v>0.6249218805698993</v>
       </c>
       <c r="P3">
-        <v>0.6695444646155057</v>
+        <v>0.6610431995300362</v>
       </c>
       <c r="Q3">
-        <v>0.9512869536158887</v>
+        <v>1.043852445229445</v>
       </c>
       <c r="R3">
-        <v>8.561582582542998</v>
+        <v>9.394672007065001</v>
       </c>
       <c r="S3">
-        <v>0.6317354457117094</v>
+        <v>0.008821411490260316</v>
       </c>
       <c r="T3">
-        <v>0.6695444646155057</v>
+        <v>0.009331300850875636</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06906766666666665</v>
+        <v>0.07578833333333333</v>
       </c>
       <c r="H4">
-        <v>0.207203</v>
+        <v>0.227365</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01411602276146197</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01411602276146197</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.052196666666667</v>
+        <v>0.9152016666666668</v>
       </c>
       <c r="N4">
-        <v>3.15659</v>
+        <v>2.745605</v>
       </c>
       <c r="O4">
-        <v>0.04826089931549069</v>
+        <v>0.04152463053717827</v>
       </c>
       <c r="P4">
-        <v>0.05114928759086742</v>
+        <v>0.04392480961710966</v>
       </c>
       <c r="Q4">
-        <v>0.07267276864111111</v>
+        <v>0.06936160898055556</v>
       </c>
       <c r="R4">
-        <v>0.65405491777</v>
+        <v>0.624254480825</v>
       </c>
       <c r="S4">
-        <v>0.04826089931549069</v>
+        <v>0.0005861626298241071</v>
       </c>
       <c r="T4">
-        <v>0.05114928759086742</v>
+        <v>0.0006200436123480034</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.06906766666666665</v>
+        <v>0.07578833333333333</v>
       </c>
       <c r="H5">
-        <v>0.207203</v>
+        <v>0.227365</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.01411602276146197</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01411602276146197</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.2322535</v>
+        <v>2.388921</v>
       </c>
       <c r="N5">
-        <v>2.464507</v>
+        <v>4.777842</v>
       </c>
       <c r="O5">
-        <v>0.05651953097614293</v>
+        <v>0.1083903859887053</v>
       </c>
       <c r="P5">
-        <v>0.03993479587551943</v>
+        <v>0.07643699666580968</v>
       </c>
       <c r="Q5">
-        <v>0.08510887398683332</v>
+        <v>0.181052341055</v>
       </c>
       <c r="R5">
-        <v>0.510653243921</v>
+        <v>1.08631404633</v>
       </c>
       <c r="S5">
-        <v>0.05651953097614293</v>
+        <v>0.001530041155740213</v>
       </c>
       <c r="T5">
-        <v>0.03993479587551943</v>
+        <v>0.001078986384752362</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.06906766666666665</v>
+        <v>0.07578833333333333</v>
       </c>
       <c r="H6">
-        <v>0.207203</v>
+        <v>0.227365</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.01411602276146197</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.01411602276146197</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.001373333333333</v>
+        <v>2.413066333333334</v>
       </c>
       <c r="N6">
-        <v>3.00412</v>
+        <v>7.239199</v>
       </c>
       <c r="O6">
-        <v>0.0459297953968212</v>
+        <v>0.1094859107046026</v>
       </c>
       <c r="P6">
-        <v>0.048678668385022</v>
+        <v>0.115814342505703</v>
       </c>
       <c r="Q6">
-        <v>0.06916251959555553</v>
+        <v>0.1828822756261111</v>
       </c>
       <c r="R6">
-        <v>0.6224626763599999</v>
+        <v>1.645940480635</v>
       </c>
       <c r="S6">
-        <v>0.0459297953968212</v>
+        <v>0.001545505607565562</v>
       </c>
       <c r="T6">
-        <v>0.048678668385022</v>
+        <v>0.001634837894914255</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.06906766666666665</v>
+        <v>0.07578833333333333</v>
       </c>
       <c r="H7">
-        <v>0.207203</v>
+        <v>0.227365</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.01411602276146197</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.01411602276146197</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,772 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.281924</v>
+        <v>1.325459</v>
       </c>
       <c r="N7">
-        <v>6.845771999999999</v>
+        <v>3.976377</v>
       </c>
       <c r="O7">
-        <v>0.1046645630977749</v>
+        <v>0.06013887132400083</v>
       </c>
       <c r="P7">
-        <v>0.1109286796224747</v>
+        <v>0.0636149783711982</v>
       </c>
       <c r="Q7">
-        <v>0.1576071661906666</v>
+        <v>0.1004543285116667</v>
       </c>
       <c r="R7">
-        <v>1.418464495716</v>
+        <v>0.904088956605</v>
       </c>
       <c r="S7">
-        <v>0.1046645630977749</v>
+        <v>0.0008489216764582282</v>
       </c>
       <c r="T7">
-        <v>0.1109286796224747</v>
+        <v>0.0008979904826577445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.237315666666666</v>
+      </c>
+      <c r="H8">
+        <v>15.711947</v>
+      </c>
+      <c r="I8">
+        <v>0.9754808412855281</v>
+      </c>
+      <c r="J8">
+        <v>0.9754808412855281</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.224063</v>
+      </c>
+      <c r="N8">
+        <v>2.448126</v>
+      </c>
+      <c r="O8">
+        <v>0.05553832087561397</v>
+      </c>
+      <c r="P8">
+        <v>0.03916567331014337</v>
+      </c>
+      <c r="Q8">
+        <v>6.410804326886999</v>
+      </c>
+      <c r="R8">
+        <v>38.464825961322</v>
+      </c>
+      <c r="S8">
+        <v>0.05417656797132952</v>
+      </c>
+      <c r="T8">
+        <v>0.03820536395009281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.237315666666666</v>
+      </c>
+      <c r="H9">
+        <v>15.711947</v>
+      </c>
+      <c r="I9">
+        <v>0.9754808412855281</v>
+      </c>
+      <c r="J9">
+        <v>0.9754808412855281</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.77326033333333</v>
+      </c>
+      <c r="N9">
+        <v>41.31978100000001</v>
+      </c>
+      <c r="O9">
+        <v>0.6249218805698993</v>
+      </c>
+      <c r="P9">
+        <v>0.6610431995300362</v>
+      </c>
+      <c r="Q9">
+        <v>72.13491212484523</v>
+      </c>
+      <c r="R9">
+        <v>649.2142091236071</v>
+      </c>
+      <c r="S9">
+        <v>0.6095993217960597</v>
+      </c>
+      <c r="T9">
+        <v>0.644834976403637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.237315666666666</v>
+      </c>
+      <c r="H10">
+        <v>15.711947</v>
+      </c>
+      <c r="I10">
+        <v>0.9754808412855281</v>
+      </c>
+      <c r="J10">
+        <v>0.9754808412855281</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9152016666666668</v>
+      </c>
+      <c r="N10">
+        <v>2.745605</v>
+      </c>
+      <c r="O10">
+        <v>0.04152463053717827</v>
+      </c>
+      <c r="P10">
+        <v>0.04392480961710966</v>
+      </c>
+      <c r="Q10">
+        <v>4.793200026992778</v>
+      </c>
+      <c r="R10">
+        <v>43.13880024293501</v>
+      </c>
+      <c r="S10">
+        <v>0.04050648153047739</v>
+      </c>
+      <c r="T10">
+        <v>0.04284781023860479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.237315666666666</v>
+      </c>
+      <c r="H11">
+        <v>15.711947</v>
+      </c>
+      <c r="I11">
+        <v>0.9754808412855281</v>
+      </c>
+      <c r="J11">
+        <v>0.9754808412855281</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.388921</v>
+      </c>
+      <c r="N11">
+        <v>4.777842</v>
+      </c>
+      <c r="O11">
+        <v>0.1083903859887053</v>
+      </c>
+      <c r="P11">
+        <v>0.07643699666580968</v>
+      </c>
+      <c r="Q11">
+        <v>12.511533379729</v>
+      </c>
+      <c r="R11">
+        <v>75.069200278374</v>
+      </c>
+      <c r="S11">
+        <v>0.1057327449115254</v>
+      </c>
+      <c r="T11">
+        <v>0.07456282581290313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.237315666666666</v>
+      </c>
+      <c r="H12">
+        <v>15.711947</v>
+      </c>
+      <c r="I12">
+        <v>0.9754808412855281</v>
+      </c>
+      <c r="J12">
+        <v>0.9754808412855281</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.413066333333334</v>
+      </c>
+      <c r="N12">
+        <v>7.239199</v>
+      </c>
+      <c r="O12">
+        <v>0.1094859107046026</v>
+      </c>
+      <c r="P12">
+        <v>0.115814342505703</v>
+      </c>
+      <c r="Q12">
+        <v>12.63799011227256</v>
+      </c>
+      <c r="R12">
+        <v>113.741911010453</v>
+      </c>
+      <c r="S12">
+        <v>0.1068014082830379</v>
+      </c>
+      <c r="T12">
+        <v>0.1129746722603934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.237315666666666</v>
+      </c>
+      <c r="H13">
+        <v>15.711947</v>
+      </c>
+      <c r="I13">
+        <v>0.9754808412855281</v>
+      </c>
+      <c r="J13">
+        <v>0.9754808412855281</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.325459</v>
+      </c>
+      <c r="N13">
+        <v>3.976377</v>
+      </c>
+      <c r="O13">
+        <v>0.06013887132400083</v>
+      </c>
+      <c r="P13">
+        <v>0.0636149783711982</v>
+      </c>
+      <c r="Q13">
+        <v>6.941847186224334</v>
+      </c>
+      <c r="R13">
+        <v>62.47662467601901</v>
+      </c>
+      <c r="S13">
+        <v>0.05866431679309846</v>
+      </c>
+      <c r="T13">
+        <v>0.06205519261989709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.05585400000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.167562</v>
+      </c>
+      <c r="I14">
+        <v>0.01040313595300988</v>
+      </c>
+      <c r="J14">
+        <v>0.01040313595300988</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.224063</v>
+      </c>
+      <c r="N14">
+        <v>2.448126</v>
+      </c>
+      <c r="O14">
+        <v>0.05553832087561397</v>
+      </c>
+      <c r="P14">
+        <v>0.03916567331014337</v>
+      </c>
+      <c r="Q14">
+        <v>0.06836881480200001</v>
+      </c>
+      <c r="R14">
+        <v>0.410212888812</v>
+      </c>
+      <c r="S14">
+        <v>0.0005777727026708987</v>
+      </c>
+      <c r="T14">
+        <v>0.0004074458241365918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.05585400000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.167562</v>
+      </c>
+      <c r="I15">
+        <v>0.01040313595300988</v>
+      </c>
+      <c r="J15">
+        <v>0.01040313595300988</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>13.77326033333333</v>
+      </c>
+      <c r="N15">
+        <v>41.31978100000001</v>
+      </c>
+      <c r="O15">
+        <v>0.6249218805698993</v>
+      </c>
+      <c r="P15">
+        <v>0.6610431995300362</v>
+      </c>
+      <c r="Q15">
+        <v>0.7692916826580002</v>
+      </c>
+      <c r="R15">
+        <v>6.923625143922002</v>
+      </c>
+      <c r="S15">
+        <v>0.006501147283579265</v>
+      </c>
+      <c r="T15">
+        <v>0.006876922275523601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.05585400000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.167562</v>
+      </c>
+      <c r="I16">
+        <v>0.01040313595300988</v>
+      </c>
+      <c r="J16">
+        <v>0.01040313595300988</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.9152016666666668</v>
+      </c>
+      <c r="N16">
+        <v>2.745605</v>
+      </c>
+      <c r="O16">
+        <v>0.04152463053717827</v>
+      </c>
+      <c r="P16">
+        <v>0.04392480961710966</v>
+      </c>
+      <c r="Q16">
+        <v>0.05111767389000001</v>
+      </c>
+      <c r="R16">
+        <v>0.4600590650100001</v>
+      </c>
+      <c r="S16">
+        <v>0.0004319863768767711</v>
+      </c>
+      <c r="T16">
+        <v>0.0004569557661568675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.05585400000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.167562</v>
+      </c>
+      <c r="I17">
+        <v>0.01040313595300988</v>
+      </c>
+      <c r="J17">
+        <v>0.01040313595300988</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.388921</v>
+      </c>
+      <c r="N17">
+        <v>4.777842</v>
+      </c>
+      <c r="O17">
+        <v>0.1083903859887053</v>
+      </c>
+      <c r="P17">
+        <v>0.07643699666580968</v>
+      </c>
+      <c r="Q17">
+        <v>0.133430793534</v>
+      </c>
+      <c r="R17">
+        <v>0.800584761204</v>
+      </c>
+      <c r="S17">
+        <v>0.001127599921439719</v>
+      </c>
+      <c r="T17">
+        <v>0.0007951844681541808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.05585400000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.167562</v>
+      </c>
+      <c r="I18">
+        <v>0.01040313595300988</v>
+      </c>
+      <c r="J18">
+        <v>0.01040313595300988</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.413066333333334</v>
+      </c>
+      <c r="N18">
+        <v>7.239199</v>
+      </c>
+      <c r="O18">
+        <v>0.1094859107046026</v>
+      </c>
+      <c r="P18">
+        <v>0.115814342505703</v>
+      </c>
+      <c r="Q18">
+        <v>0.134779406982</v>
+      </c>
+      <c r="R18">
+        <v>1.213014662838</v>
+      </c>
+      <c r="S18">
+        <v>0.00113899681399908</v>
+      </c>
+      <c r="T18">
+        <v>0.001204832350395278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.05585400000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.167562</v>
+      </c>
+      <c r="I19">
+        <v>0.01040313595300988</v>
+      </c>
+      <c r="J19">
+        <v>0.01040313595300988</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.325459</v>
+      </c>
+      <c r="N19">
+        <v>3.976377</v>
+      </c>
+      <c r="O19">
+        <v>0.06013887132400083</v>
+      </c>
+      <c r="P19">
+        <v>0.0636149783711982</v>
+      </c>
+      <c r="Q19">
+        <v>0.07403218698600002</v>
+      </c>
+      <c r="R19">
+        <v>0.6662896828740001</v>
+      </c>
+      <c r="S19">
+        <v>0.0006256328544441478</v>
+      </c>
+      <c r="T19">
+        <v>0.0006617952686433576</v>
       </c>
     </row>
   </sheetData>
